--- a/output/principal.xlsx
+++ b/output/principal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="40">
   <si>
     <t>Especialidade</t>
   </si>
@@ -62,12 +62,18 @@
     <t>Obstetrícia</t>
   </si>
   <si>
+    <t>Cirurgia de Ambulatório</t>
+  </si>
+  <si>
     <t>Urgente</t>
   </si>
   <si>
     <t>Programada</t>
   </si>
   <si>
+    <t>Ambulatório</t>
+  </si>
+  <si>
     <t>Emergente</t>
   </si>
   <si>
@@ -114,6 +120,15 @@
   </si>
   <si>
     <t>Membro superior</t>
+  </si>
+  <si>
+    <t>Cavidade abdominal</t>
+  </si>
+  <si>
+    <t>Parede abdominal</t>
+  </si>
+  <si>
+    <t>Genitais externos</t>
   </si>
   <si>
     <t>Ecógrafo</t>
@@ -214,22 +229,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" t="e">
         <v>#N/A</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" t="e">
         <v>#N/A</v>
@@ -252,22 +267,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" t="e">
         <v>#N/A</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" t="e">
         <v>#N/A</v>
@@ -290,13 +305,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="e">
         <v>#N/A</v>
@@ -305,7 +320,7 @@
         <v>3.0</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" t="e">
         <v>#N/A</v>
@@ -328,22 +343,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
         <v>2.0</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" t="e">
         <v>#N/A</v>
@@ -366,22 +381,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
         <v>3.0</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" t="e">
         <v>#N/A</v>
@@ -404,13 +419,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" t="e">
         <v>#N/A</v>
@@ -419,7 +434,7 @@
         <v>4.0</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7" t="e">
         <v>#N/A</v>
@@ -442,22 +457,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" t="e">
         <v>#N/A</v>
@@ -480,13 +495,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" t="e">
         <v>#N/A</v>
@@ -495,7 +510,7 @@
         <v>1.0</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H9" t="e">
         <v>#N/A</v>
@@ -518,13 +533,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" t="e">
         <v>#N/A</v>
@@ -533,7 +548,7 @@
         <v>3.0</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10" t="e">
         <v>#N/A</v>
@@ -556,13 +571,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" t="e">
         <v>#N/A</v>
@@ -571,7 +586,7 @@
         <v>2.0</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H11" t="e">
         <v>#N/A</v>
@@ -594,22 +609,22 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
         <v>2.0</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H12" t="e">
         <v>#N/A</v>
@@ -632,13 +647,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" t="e">
         <v>#N/A</v>
@@ -647,7 +662,7 @@
         <v>3.0</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H13" t="e">
         <v>#N/A</v>
@@ -670,13 +685,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" t="e">
         <v>#N/A</v>
@@ -685,7 +700,7 @@
         <v>1.0</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H14" t="e">
         <v>#N/A</v>
@@ -708,13 +723,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" t="e">
         <v>#N/A</v>
@@ -723,7 +738,7 @@
         <v>1.0</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H15" t="e">
         <v>#N/A</v>
@@ -746,22 +761,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
         <v>3.0</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H16" t="e">
         <v>#N/A</v>
@@ -784,22 +799,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F17" t="n">
         <v>2.0</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17" t="e">
         <v>#N/A</v>
@@ -822,22 +837,22 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" t="n">
         <v>1.0</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H18" t="e">
         <v>#N/A</v>
@@ -860,22 +875,22 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H19" t="e">
         <v>#N/A</v>
@@ -898,22 +913,22 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F20" t="n">
         <v>3.0</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H20" t="e">
         <v>#N/A</v>
@@ -936,22 +951,22 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" t="n">
         <v>3.0</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H21" t="e">
         <v>#N/A</v>
@@ -974,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E22" t="e">
         <v>#N/A</v>
@@ -989,7 +1004,7 @@
         <v>2.0</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H22" t="e">
         <v>#N/A</v>
@@ -1012,13 +1027,13 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E23" t="e">
         <v>#N/A</v>
@@ -1027,7 +1042,7 @@
         <v>4.0</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H23" t="e">
         <v>#N/A</v>
@@ -1050,22 +1065,22 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
         <v>2.0</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H24" t="e">
         <v>#N/A</v>
@@ -1088,13 +1103,13 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25" t="e">
         <v>#N/A</v>
@@ -1103,7 +1118,7 @@
         <v>1.0</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H25" t="e">
         <v>#N/A</v>
@@ -1126,13 +1141,13 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E26" t="e">
         <v>#N/A</v>
@@ -1141,7 +1156,7 @@
         <v>3.0</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H26" t="e">
         <v>#N/A</v>
@@ -1164,13 +1179,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E27" t="e">
         <v>#N/A</v>
@@ -1179,7 +1194,7 @@
         <v>2.0</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H27" t="e">
         <v>#N/A</v>
@@ -1202,13 +1217,13 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E28" t="e">
         <v>#N/A</v>
@@ -1217,7 +1232,7 @@
         <v>1.0</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H28" t="e">
         <v>#N/A</v>
@@ -1240,13 +1255,13 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E29" t="e">
         <v>#N/A</v>
@@ -1255,7 +1270,7 @@
         <v>3.0</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H29" t="e">
         <v>#N/A</v>
@@ -1278,13 +1293,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E30" t="e">
         <v>#N/A</v>
@@ -1293,7 +1308,7 @@
         <v>2.0</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H30" t="e">
         <v>#N/A</v>
@@ -1316,13 +1331,13 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E31" t="e">
         <v>#N/A</v>
@@ -1331,7 +1346,7 @@
         <v>2.0</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H31" t="e">
         <v>#N/A</v>
@@ -1354,13 +1369,13 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E32" t="e">
         <v>#N/A</v>
@@ -1369,7 +1384,7 @@
         <v>3.0</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H32" t="e">
         <v>#N/A</v>
@@ -1392,13 +1407,13 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E33" t="e">
         <v>#N/A</v>
@@ -1407,7 +1422,7 @@
         <v>2.0</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H33" t="e">
         <v>#N/A</v>
@@ -1430,13 +1445,13 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E34" t="e">
         <v>#N/A</v>
@@ -1445,7 +1460,7 @@
         <v>2.0</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H34" t="e">
         <v>#N/A</v>
@@ -1468,13 +1483,13 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E35" t="e">
         <v>#N/A</v>
@@ -1483,7 +1498,7 @@
         <v>1.0</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H35" t="e">
         <v>#N/A</v>
@@ -1506,13 +1521,13 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E36" t="e">
         <v>#N/A</v>
@@ -1521,7 +1536,7 @@
         <v>2.0</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H36" t="e">
         <v>#N/A</v>
@@ -1544,13 +1559,13 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E37" t="e">
         <v>#N/A</v>
@@ -1559,7 +1574,7 @@
         <v>2.0</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H37" t="e">
         <v>#N/A</v>
@@ -1582,13 +1597,13 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E38" t="e">
         <v>#N/A</v>
@@ -1597,7 +1612,7 @@
         <v>2.0</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H38" t="e">
         <v>#N/A</v>
@@ -1620,13 +1635,13 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E39" t="e">
         <v>#N/A</v>
@@ -1635,7 +1650,7 @@
         <v>3.0</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H39" t="e">
         <v>#N/A</v>
@@ -1658,13 +1673,13 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E40" t="e">
         <v>#N/A</v>
@@ -1673,7 +1688,7 @@
         <v>3.0</v>
       </c>
       <c r="G40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H40" t="e">
         <v>#N/A</v>
@@ -1696,13 +1711,13 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E41" t="e">
         <v>#N/A</v>
@@ -1711,7 +1726,7 @@
         <v>1.0</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H41" t="e">
         <v>#N/A</v>
@@ -1734,13 +1749,13 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E42" t="e">
         <v>#N/A</v>
@@ -1749,7 +1764,7 @@
         <v>2.0</v>
       </c>
       <c r="G42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H42" t="e">
         <v>#N/A</v>
@@ -1772,13 +1787,13 @@
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E43" t="e">
         <v>#N/A</v>
@@ -1787,7 +1802,7 @@
         <v>3.0</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H43" t="e">
         <v>#N/A</v>
@@ -1810,34 +1825,34 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F44" t="n">
         <v>2.0</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H44" t="e">
         <v>#N/A</v>
       </c>
       <c r="I44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J44" t="n" s="2">
         <v>42614.0</v>
       </c>
       <c r="K44" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L44" t="n">
         <v>43.0</v>
@@ -1848,13 +1863,13 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E45" t="e">
         <v>#N/A</v>
@@ -1863,13 +1878,13 @@
         <v>2.0</v>
       </c>
       <c r="G45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H45" t="e">
         <v>#N/A</v>
       </c>
       <c r="I45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J45" t="n" s="2">
         <v>42614.0</v>
@@ -1886,13 +1901,13 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E46" t="e">
         <v>#N/A</v>
@@ -1901,19 +1916,19 @@
         <v>1.0</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H46" t="e">
         <v>#N/A</v>
       </c>
       <c r="I46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J46" t="n" s="2">
         <v>42614.0</v>
       </c>
       <c r="K46" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L46" t="n">
         <v>45.0</v>
@@ -1921,16 +1936,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E47" t="e">
         <v>#N/A</v>
@@ -1939,16 +1954,16 @@
         <v>2.0</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J47" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I47" t="s">
+        <v>35</v>
+      </c>
+      <c r="J47" t="n" s="2">
+        <v>42618.0</v>
       </c>
       <c r="K47" t="e">
         <v>#N/A</v>
@@ -1959,34 +1974,34 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E48" t="e">
         <v>#N/A</v>
       </c>
       <c r="F48" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H48" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J48" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" t="n" s="2">
+        <v>42618.0</v>
       </c>
       <c r="K48" t="e">
         <v>#N/A</v>
@@ -1997,34 +2012,34 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="E49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F49" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H49" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J49" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" t="n" s="2">
+        <v>42618.0</v>
       </c>
       <c r="K49" t="e">
         <v>#N/A</v>
@@ -2035,34 +2050,34 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="E50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F50" t="n">
         <v>3.0</v>
       </c>
       <c r="G50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J50" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50" t="n" s="2">
+        <v>42619.0</v>
       </c>
       <c r="K50" t="e">
         <v>#N/A</v>
@@ -2073,34 +2088,34 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="E51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F51" t="n">
         <v>3.0</v>
       </c>
       <c r="G51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J51" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I51" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" t="n" s="2">
+        <v>42619.0</v>
       </c>
       <c r="K51" t="e">
         <v>#N/A</v>
@@ -2111,34 +2126,34 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="E52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F52" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G52" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J52" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I52" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" t="n" s="2">
+        <v>42619.0</v>
       </c>
       <c r="K52" t="e">
         <v>#N/A</v>
@@ -2149,34 +2164,34 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" t="s">
         <v>16</v>
       </c>
+      <c r="B53" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="E53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F53" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J53" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J53" t="n" s="2">
+        <v>42619.0</v>
       </c>
       <c r="K53" t="e">
         <v>#N/A</v>
@@ -2187,34 +2202,34 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E54" t="e">
         <v>#N/A</v>
       </c>
       <c r="F54" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G54" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H54" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J54" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J54" t="n" s="2">
+        <v>42619.0</v>
       </c>
       <c r="K54" t="e">
         <v>#N/A</v>
@@ -2225,34 +2240,34 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E55" t="e">
         <v>#N/A</v>
       </c>
       <c r="F55" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H55" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J55" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I55" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" t="n" s="2">
+        <v>42619.0</v>
       </c>
       <c r="K55" t="e">
         <v>#N/A</v>
@@ -2263,13 +2278,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -2281,7 +2296,7 @@
         <v>2.0</v>
       </c>
       <c r="G56" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H56" t="e">
         <v>#N/A</v>
@@ -2301,13 +2316,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -2316,10 +2331,10 @@
         <v>#N/A</v>
       </c>
       <c r="F57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H57" t="e">
         <v>#N/A</v>
@@ -2339,25 +2354,25 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F58" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H58" t="e">
         <v>#N/A</v>
@@ -2377,25 +2392,25 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" t="e">
-        <v>#N/A</v>
+        <v>24</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
       </c>
       <c r="F59" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H59" t="e">
         <v>#N/A</v>
@@ -2415,25 +2430,25 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
-      <c r="E60" t="e">
-        <v>#N/A</v>
+      <c r="E60" t="s">
+        <v>27</v>
       </c>
       <c r="F60" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H60" t="e">
         <v>#N/A</v>
@@ -2453,25 +2468,25 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
       </c>
-      <c r="E61" t="e">
-        <v>#N/A</v>
+      <c r="E61" t="s">
+        <v>27</v>
       </c>
       <c r="F61" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H61" t="e">
         <v>#N/A</v>
@@ -2494,22 +2509,22 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" t="e">
-        <v>#N/A</v>
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>27</v>
       </c>
       <c r="F62" t="n">
         <v>2.0</v>
       </c>
       <c r="G62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H62" t="e">
         <v>#N/A</v>
@@ -2529,16 +2544,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E63" t="e">
         <v>#N/A</v>
@@ -2547,7 +2562,7 @@
         <v>2.0</v>
       </c>
       <c r="G63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H63" t="e">
         <v>#N/A</v>
@@ -2567,25 +2582,25 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E64" t="e">
         <v>#N/A</v>
       </c>
       <c r="F64" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H64" t="e">
         <v>#N/A</v>
@@ -2601,6 +2616,348 @@
       </c>
       <c r="L64" t="n">
         <v>63.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J65" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L65" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J66" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L66" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J67" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L67" t="n">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J68" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L68" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J69" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L69" t="n">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J70" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L70" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J71" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L71" t="n">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J72" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L72" t="n">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J73" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L73" t="n">
+        <v>72.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/principal.xlsx
+++ b/output/principal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="43">
   <si>
     <t>Especialidade</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Genitais externos</t>
+  </si>
+  <si>
+    <t>Genitais internos</t>
+  </si>
+  <si>
+    <t>Bexiga e Uretra</t>
+  </si>
+  <si>
+    <t>Períneo</t>
   </si>
   <si>
     <t>Ecógrafo</t>
@@ -1852,7 +1861,7 @@
         <v>42614.0</v>
       </c>
       <c r="K44" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L44" t="n">
         <v>43.0</v>
@@ -1928,7 +1937,7 @@
         <v>42614.0</v>
       </c>
       <c r="K46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L46" t="n">
         <v>45.0</v>
@@ -2278,34 +2287,34 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E56" t="e">
         <v>#N/A</v>
       </c>
       <c r="F56" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H56" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J56" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" t="n" s="2">
+        <v>42620.0</v>
       </c>
       <c r="K56" t="e">
         <v>#N/A</v>
@@ -2316,34 +2325,34 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
         <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E57" t="e">
         <v>#N/A</v>
       </c>
       <c r="F57" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J57" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I57" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" t="n" s="2">
+        <v>42620.0</v>
       </c>
       <c r="K57" t="e">
         <v>#N/A</v>
@@ -2354,34 +2363,34 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
         <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="E58" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F58" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J58" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I58" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" t="n" s="2">
+        <v>42620.0</v>
       </c>
       <c r="K58" t="e">
         <v>#N/A</v>
@@ -2392,34 +2401,34 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E59" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F59" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H59" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J59" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I59" t="s">
+        <v>35</v>
+      </c>
+      <c r="J59" t="n" s="2">
+        <v>42620.0</v>
       </c>
       <c r="K59" t="e">
         <v>#N/A</v>
@@ -2436,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -2453,14 +2462,14 @@
       <c r="H60" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J60" t="e" s="2">
-        <v>#N/A</v>
-      </c>
-      <c r="K60" t="e">
-        <v>#N/A</v>
+      <c r="I60" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" t="n" s="2">
+        <v>42621.0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>42</v>
       </c>
       <c r="L60" t="n">
         <v>59.0</v>
@@ -2468,19 +2477,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
         <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="E61" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F61" t="n">
         <v>2.0</v>
@@ -2491,11 +2500,11 @@
       <c r="H61" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J61" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I61" t="s">
+        <v>34</v>
+      </c>
+      <c r="J61" t="n" s="2">
+        <v>42621.0</v>
       </c>
       <c r="K61" t="e">
         <v>#N/A</v>
@@ -2521,7 +2530,7 @@
         <v>27</v>
       </c>
       <c r="F62" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -2529,14 +2538,14 @@
       <c r="H62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J62" t="e" s="2">
-        <v>#N/A</v>
-      </c>
-      <c r="K62" t="e">
-        <v>#N/A</v>
+      <c r="I62" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" t="n" s="2">
+        <v>42621.0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>42</v>
       </c>
       <c r="L62" t="n">
         <v>61.0</v>
@@ -2567,11 +2576,11 @@
       <c r="H63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J63" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I63" t="s">
+        <v>34</v>
+      </c>
+      <c r="J63" t="n" s="2">
+        <v>42621.0</v>
       </c>
       <c r="K63" t="e">
         <v>#N/A</v>
@@ -2582,10 +2591,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
         <v>22</v>
@@ -2605,11 +2614,11 @@
       <c r="H64" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J64" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I64" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" t="n" s="2">
+        <v>42625.0</v>
       </c>
       <c r="K64" t="e">
         <v>#N/A</v>
@@ -2620,13 +2629,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="B65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D65" t="s">
         <v>25</v>
@@ -2643,11 +2652,11 @@
       <c r="H65" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J65" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I65" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" t="n" s="2">
+        <v>42625.0</v>
       </c>
       <c r="K65" t="e">
         <v>#N/A</v>
@@ -2658,34 +2667,34 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="B66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D66" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E66" t="e">
         <v>#N/A</v>
       </c>
       <c r="F66" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H66" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J66" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I66" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66" t="n" s="2">
+        <v>42626.0</v>
       </c>
       <c r="K66" t="e">
         <v>#N/A</v>
@@ -2696,19 +2705,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="E67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F67" t="n">
         <v>2.0</v>
@@ -2719,11 +2728,11 @@
       <c r="H67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J67" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J67" t="n" s="2">
+        <v>42626.0</v>
       </c>
       <c r="K67" t="e">
         <v>#N/A</v>
@@ -2734,22 +2743,22 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E68" t="e">
         <v>#N/A</v>
       </c>
       <c r="F68" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -2757,11 +2766,11 @@
       <c r="H68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J68" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I68" t="s">
+        <v>37</v>
+      </c>
+      <c r="J68" t="n" s="2">
+        <v>42626.0</v>
       </c>
       <c r="K68" t="e">
         <v>#N/A</v>
@@ -2772,22 +2781,22 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C69" t="s">
         <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E69" t="e">
         <v>#N/A</v>
       </c>
       <c r="F69" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G69" t="s">
         <v>29</v>
@@ -2795,11 +2804,11 @@
       <c r="H69" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J69" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I69" t="s">
+        <v>41</v>
+      </c>
+      <c r="J69" t="n" s="2">
+        <v>42626.0</v>
       </c>
       <c r="K69" t="e">
         <v>#N/A</v>
@@ -2810,22 +2819,22 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E70" t="e">
         <v>#N/A</v>
       </c>
       <c r="F70" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G70" t="s">
         <v>29</v>
@@ -2833,11 +2842,11 @@
       <c r="H70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J70" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I70" t="s">
+        <v>41</v>
+      </c>
+      <c r="J70" t="n" s="2">
+        <v>42626.0</v>
       </c>
       <c r="K70" t="e">
         <v>#N/A</v>
@@ -2848,22 +2857,22 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E71" t="e">
         <v>#N/A</v>
       </c>
       <c r="F71" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G71" t="s">
         <v>29</v>
@@ -2871,11 +2880,11 @@
       <c r="H71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J71" t="e" s="2">
-        <v>#N/A</v>
+      <c r="I71" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71" t="n" s="2">
+        <v>42626.0</v>
       </c>
       <c r="K71" t="e">
         <v>#N/A</v>
@@ -2886,16 +2895,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
         <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E72" t="e">
         <v>#N/A</v>
@@ -2904,7 +2913,7 @@
         <v>2.0</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H72" t="e">
         <v>#N/A</v>
@@ -2924,16 +2933,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E73" t="e">
         <v>#N/A</v>
@@ -2942,7 +2951,7 @@
         <v>3.0</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H73" t="e">
         <v>#N/A</v>
@@ -2958,6 +2967,614 @@
       </c>
       <c r="L73" t="n">
         <v>72.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J74" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L74" t="n">
+        <v>73.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J75" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L75" t="n">
+        <v>74.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J76" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L76" t="n">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J77" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L77" t="n">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J78" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L78" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J79" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L79" t="n">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J80" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L80" t="n">
+        <v>79.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J81" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L81" t="n">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J82" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L82" t="n">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J83" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L83" t="n">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J84" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L84" t="n">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J85" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L85" t="n">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J86" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L86" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J87" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L87" t="n">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J88" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L88" t="n">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J89" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="K89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L89" t="n">
+        <v>88.0</v>
       </c>
     </row>
   </sheetData>
